--- a/custom_statuses.xlsx
+++ b/custom_statuses.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B284"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2382,9 +2382,305 @@
         <v>Xera</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Watching the CC's Fig turn into a Starfruit</v>
+      </c>
+      <c r="B248" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Eating a Tbone steak</v>
+      </c>
+      <c r="B249" t="str">
+        <v>waltuh</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>i swear these decks are good it's just bad matchups</v>
+      </c>
+      <c r="B250" t="str">
+        <v>stingray201</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>[comp deck] is bad, actually</v>
+      </c>
+      <c r="B251" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>they'll never expect the fifth gravebuster that I conjured</v>
+      </c>
+      <c r="B252" t="str">
+        <v>stingray201</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Couldn't Lock the Bathroom :(</v>
+      </c>
+      <c r="B253" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Dooming an empty field for card draw</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Slewer</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Have a nice da</v>
+      </c>
+      <c r="B255" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Still playing Conman t1 Swashbuckler t2</v>
+      </c>
+      <c r="B256" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Spamming Hearty Treats on Exploding Imps</v>
+      </c>
+      <c r="B257" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Everytime they play a potato mine the nibble in my hand speaks to me</v>
+      </c>
+      <c r="B258" t="str">
+        <v>hayria</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Making card concepts for Magnet-Shroom that do things with Armored</v>
+      </c>
+      <c r="B259" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>🐴</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Seasons</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>projecting my insecurities through tbot status submissions</v>
+      </c>
+      <c r="B261" t="str">
+        <v>stingray201</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Hate is lame. Spread the love G</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Huyn</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>make sure to thank tbot when you ask for decks :)</v>
+      </c>
+      <c r="B263" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>The nibble in my hand talks to me when my opponent plays a ppm</v>
+      </c>
+      <c r="B264" t="str">
+        <v>hayriana</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>We (yes WE) are all running Typical Beanstalk in 2025</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Axol</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>If you win a lot of games, are you skilled or just lucky?</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Alan</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Zombot Stomp in the pocket</v>
+      </c>
+      <c r="B267" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Real good players win with their favourites</v>
+      </c>
+      <c r="B268" t="str">
+        <v>meowmeow</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Submitting conjure slop to tbot after winning 1 game on ladder</v>
+      </c>
+      <c r="B269" t="str">
+        <v>stingray201</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Upvoting my own suggestion</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Seasons</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>The first rule of Fig Club is you don't talk about Fig Club</v>
+      </c>
+      <c r="B271" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>2025 is the year of the Snake Grass!</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Hyshew</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Letting the opponent ramp to a turn 4 DMD so I can screenshot it and whine about it on reddit</v>
+      </c>
+      <c r="B273" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Who you gonna call... Blockbusters</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Tbone</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>When onion rings I pick up the call</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Axol</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Getting MUG from a one minion BMR</v>
+      </c>
+      <c r="B276" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Doing one push-up every time I see t2 Cryo-Brain</v>
+      </c>
+      <c r="B277" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>you are very sleepy give tbone money so he can keep tbot up</v>
+      </c>
+      <c r="B278" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Tbone: officially unc status</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Rip</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Getting Pineclone from a Brainana+Dragon Cornucopia</v>
+      </c>
+      <c r="B280" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Ifdeckass: /SuggestAsMemeDeck</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Seasons</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>ifdeckgood: /SuggestAsLadderDeck</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Seasons</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>ifdeckbad: /SuggestAsCompetitiveDeck</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Seasons</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Going Nuts with Go-Nuts</v>
+      </c>
+      <c r="B284" t="str">
+        <v>depressedmonke</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B247"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B284"/>
   </ignoredErrors>
 </worksheet>
 </file>